--- a/InterfaceThroughputs.xlsx
+++ b/InterfaceThroughputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Fp01\f\shane.sexton\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A9ED4F7-0F5B-4B68-9A17-5EF88A11252D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE460AE0-DDC7-4176-A873-C054F770681D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28035" windowHeight="14355" xr2:uid="{65D188FC-A6C1-4186-B558-FFD178CBECFB}"/>
+    <workbookView xWindow="6945" yWindow="915" windowWidth="20850" windowHeight="10275" xr2:uid="{65D188FC-A6C1-4186-B558-FFD178CBECFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="B0">Sheet1!$B$3037</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t xml:space="preserve">USB </t>
   </si>
@@ -130,7 +129,28 @@
     <t>WiFi*</t>
   </si>
   <si>
-    <t>*Theoretical throughputs</t>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>4.5m</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>3m</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Theoretical throughputs and distances </t>
+  </si>
+  <si>
+    <t>35m</t>
+  </si>
+  <si>
+    <t>75m</t>
   </si>
 </sst>
 </file>
@@ -524,10 +544,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7459A2EB-95AD-468D-AF56-C2B0364F0B6A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,9 +558,10 @@
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -547,11 +571,14 @@
       <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -561,8 +588,11 @@
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="6">
         <v>800</v>
@@ -571,12 +601,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -586,8 +616,11 @@
       <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
         <v>16</v>
@@ -596,7 +629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>17</v>
@@ -605,12 +638,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -620,8 +653,11 @@
       <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="6">
         <v>2</v>
@@ -630,7 +666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="6">
         <v>3</v>
@@ -639,12 +675,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,8 +690,11 @@
       <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>2</v>
       </c>
@@ -663,7 +702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>3</v>
       </c>
@@ -681,6 +720,9 @@
       <c r="C18" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
@@ -689,6 +731,9 @@
       <c r="C19" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
@@ -697,6 +742,9 @@
       <c r="C20" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
@@ -705,6 +753,9 @@
       <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
@@ -713,10 +764,13 @@
       <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D23" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
